--- a/data/trans_bre/DC-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.974565125702762</v>
+        <v>3.160389665645829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.11287567548425</v>
+        <v>11.02570645886772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.417701620163855</v>
+        <v>6.542072524373715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.72773867990929</v>
+        <v>10.09048277757603</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1180215477992353</v>
+        <v>0.1238664233080603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8723595235853985</v>
+        <v>0.8679311066517774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5072456730552346</v>
+        <v>0.4929166094443043</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2717083892668626</v>
+        <v>0.2793184723488132</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.11037846148104</v>
+        <v>12.05801904926154</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.52341400651682</v>
+        <v>17.91018955947041</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.74654123622195</v>
+        <v>12.83888398768875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.27765016664666</v>
+        <v>21.14183747014822</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6050676790252428</v>
+        <v>0.5969270799434682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.822315669932285</v>
+        <v>1.833136181987086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.278504042875731</v>
+        <v>1.208986522413659</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.741076779011288</v>
+        <v>0.7319585356276681</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.203572256632485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15.98212954928299</v>
+        <v>15.98212954928298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6473154339785111</v>
@@ -749,7 +749,7 @@
         <v>0.9442482760424276</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7393777261071934</v>
+        <v>0.7393777261071927</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.102569422626821</v>
+        <v>8.349244848498252</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>11.43498763582732</v>
+        <v>11.66723362160214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.925149319393907</v>
+        <v>5.65687267036043</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.53870574167613</v>
+        <v>12.400411757592</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4147044372880586</v>
+        <v>0.4098809303578942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9310973868482645</v>
+        <v>0.9796065047904413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5206910120740633</v>
+        <v>0.4717148784162785</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5229902646910851</v>
+        <v>0.5176245840233573</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.29258332764358</v>
+        <v>15.33117026679736</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.22543953730467</v>
+        <v>18.24366575035985</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.37608189866797</v>
+        <v>12.4089654475546</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.13661795099044</v>
+        <v>19.87452001813291</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9563933604236471</v>
+        <v>0.9212811381839554</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.003790719096503</v>
+        <v>2.075315228397611</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.493198992289678</v>
+        <v>1.453482573076629</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.043965796649523</v>
+        <v>1.024869099809183</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.261974646069808</v>
+        <v>5.513913315318924</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.044097083633861</v>
+        <v>7.128211776916659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.461732979749069</v>
+        <v>3.630855659127188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.1828364836059</v>
+        <v>13.91638844959691</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3285242582518221</v>
+        <v>0.3484614331839959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.577355676365664</v>
+        <v>0.603372030264825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4098768639634904</v>
+        <v>0.4012345923195332</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7194211990014265</v>
+        <v>0.7270231962146547</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.84882196828108</v>
+        <v>12.09359071791732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.8197321701552</v>
+        <v>14.00487698391269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.853159301080797</v>
+        <v>9.886379764620305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.80220583859499</v>
+        <v>20.8949040503819</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9430152837437999</v>
+        <v>0.9530571044619043</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.579412256708</v>
+        <v>1.606589130968532</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.659498224285264</v>
+        <v>1.681204802829172</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.380683229716802</v>
+        <v>1.349487544001302</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.455568501969344</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17.83676390893766</v>
+        <v>17.83676390893767</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7888000086783833</v>
@@ -949,7 +949,7 @@
         <v>1.051475406490974</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8500250030033139</v>
+        <v>0.8500250030033141</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.816200184304324</v>
+        <v>7.798323856890916</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.185380392538046</v>
+        <v>7.414819092365994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.563616674411162</v>
+        <v>4.322710537626511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13.75977796034224</v>
+        <v>14.00427736587408</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3844572304288182</v>
+        <v>0.3880947486056442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6657935423401447</v>
+        <v>0.6734232989755444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3548484468944082</v>
+        <v>0.3945899626264547</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6029579770461923</v>
+        <v>0.5967015603655806</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.61191885784858</v>
+        <v>20.06179696128874</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.60919028105878</v>
+        <v>16.91923960154482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.46760237772478</v>
+        <v>12.89751613235011</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22.31627410700872</v>
+        <v>22.19994528206296</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.327229661774013</v>
+        <v>1.34521649608517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.38751720342974</v>
+        <v>2.33320692603304</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.037408046280806</v>
+        <v>2.009306256479935</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.18626825505392</v>
+        <v>1.172974160479255</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.806833776072837</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17.20787342973736</v>
+        <v>17.20787342973737</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6011950117846421</v>
@@ -1049,7 +1049,7 @@
         <v>0.9281136633961315</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7984734052874876</v>
+        <v>0.798473405287488</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.283626442829291</v>
+        <v>8.458840247920525</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.56674068317854</v>
+        <v>11.68322800495938</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.279657515124814</v>
+        <v>7.108982988184706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.39908207793644</v>
+        <v>15.14929670345027</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.454461358956797</v>
+        <v>0.4621874615160588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.023902824283819</v>
+        <v>1.038965188800974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7166902763869408</v>
+        <v>0.6955560803716337</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6831092266711305</v>
+        <v>0.6696833852807058</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.30411242233672</v>
+        <v>12.51397514959281</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.16154428114628</v>
+        <v>15.33230506017864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.48892577514445</v>
+        <v>10.57240993489704</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.32931238203516</v>
+        <v>19.02174214251012</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7550952777325852</v>
+        <v>0.7685371029707376</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.588770888912632</v>
+        <v>1.591930850061356</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.195377669722841</v>
+        <v>1.20792041669832</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9482200190108927</v>
+        <v>0.9329777985301186</v>
       </c>
     </row>
     <row r="19">
